--- a/Risk_Factors.xlsx
+++ b/Risk_Factors.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9bfbd2301973f4a/Desktop/smu/MQF/Asset Pricing/github/Asset_Pricing_SMU/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DF3DC8AD185B0FF455D8884707817DB99FB56642" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08836ACF-4973-462E-A9AF-2DD704F1C852}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="44960" windowHeight="28140" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Connection1" type="6" refreshedVersion="0">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Connection1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Primus:Users:weimun:Downloads:F-F_Research_Data_Factors.txt" delimited="0">
       <textFields count="5">
         <textField/>
@@ -61,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -100,11 +106,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="F-F_Research_Data_Factors" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="F-F_Research_Data_Factors" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,17 +440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -453,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>200401</v>
       </c>
@@ -470,7 +486,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>200402</v>
       </c>
@@ -487,7 +503,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200403</v>
       </c>
@@ -504,7 +520,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>200404</v>
       </c>
@@ -521,7 +537,7 @@
         <v>-1.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>200405</v>
       </c>
@@ -538,7 +554,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>200406</v>
       </c>
@@ -555,7 +571,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>200407</v>
       </c>
@@ -572,7 +588,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>200408</v>
       </c>
@@ -589,7 +605,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>200409</v>
       </c>
@@ -606,7 +622,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>200410</v>
       </c>
@@ -623,7 +639,7 @@
         <v>-0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>200411</v>
       </c>
@@ -640,7 +656,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>200412</v>
       </c>
@@ -657,7 +673,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>200501</v>
       </c>
@@ -674,7 +690,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>200502</v>
       </c>
@@ -691,7 +707,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>200503</v>
       </c>
@@ -708,7 +724,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>200504</v>
       </c>
@@ -725,7 +741,7 @@
         <v>-0.46</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>200505</v>
       </c>
@@ -742,7 +758,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>200506</v>
       </c>
@@ -759,7 +775,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>200507</v>
       </c>
@@ -776,7 +792,7 @@
         <v>-0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>200508</v>
       </c>
@@ -793,7 +809,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>200509</v>
       </c>
@@ -810,7 +826,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>200510</v>
       </c>
@@ -827,7 +843,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>200511</v>
       </c>
@@ -844,7 +860,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>200512</v>
       </c>
@@ -861,7 +877,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>200601</v>
       </c>
@@ -878,7 +894,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>200602</v>
       </c>
@@ -895,7 +911,7 @@
         <v>-0.82</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>200603</v>
       </c>
@@ -912,7 +928,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>200604</v>
       </c>
@@ -929,7 +945,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>200605</v>
       </c>
@@ -946,7 +962,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>200606</v>
       </c>
@@ -963,7 +979,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>200607</v>
       </c>
@@ -980,7 +996,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>200608</v>
       </c>
@@ -997,7 +1013,7 @@
         <v>-1.76</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>200609</v>
       </c>
@@ -1014,7 +1030,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>200610</v>
       </c>
@@ -1031,7 +1047,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>200611</v>
       </c>
@@ -1048,7 +1064,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>200612</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>200701</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>200702</v>
       </c>
@@ -1099,7 +1115,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>200703</v>
       </c>
@@ -1116,7 +1132,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>200704</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>-0.97</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>200705</v>
       </c>
@@ -1150,7 +1166,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>200706</v>
       </c>
@@ -1167,7 +1183,7 @@
         <v>-1.07</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>200707</v>
       </c>
@@ -1184,7 +1200,7 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>200708</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>200709</v>
       </c>
@@ -1218,7 +1234,7 @@
         <v>-2.14</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>200710</v>
       </c>
@@ -1235,7 +1251,7 @@
         <v>-1.95</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>200711</v>
       </c>
@@ -1252,7 +1268,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>200712</v>
       </c>
@@ -1269,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>200801</v>
       </c>
@@ -1286,7 +1302,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>200802</v>
       </c>
@@ -1303,7 +1319,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>200803</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>200804</v>
       </c>
@@ -1337,7 +1353,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>200805</v>
       </c>
@@ -1354,7 +1370,7 @@
         <v>-0.38</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>200806</v>
       </c>
@@ -1371,7 +1387,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>200807</v>
       </c>
@@ -1388,7 +1404,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>200808</v>
       </c>
@@ -1405,7 +1421,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>200809</v>
       </c>
@@ -1422,7 +1438,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>200810</v>
       </c>
@@ -1439,7 +1455,7 @@
         <v>-2.99</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>200811</v>
       </c>
@@ -1456,7 +1472,7 @@
         <v>-4.93</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>200812</v>
       </c>
@@ -1473,7 +1489,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>200901</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>-9.86</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>200902</v>
       </c>
@@ -1507,7 +1523,7 @@
         <v>-6.91</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>200903</v>
       </c>
@@ -1524,7 +1540,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>200904</v>
       </c>
@@ -1541,7 +1557,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>200905</v>
       </c>
@@ -1558,7 +1574,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>200906</v>
       </c>
@@ -1575,7 +1591,7 @@
         <v>-2.44</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>200907</v>
       </c>
@@ -1592,7 +1608,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>200908</v>
       </c>
@@ -1609,7 +1625,7 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>200909</v>
       </c>
@@ -1626,7 +1642,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>200910</v>
       </c>
@@ -1643,7 +1659,7 @@
         <v>-4.37</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>200911</v>
       </c>
@@ -1660,7 +1676,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>200912</v>
       </c>
@@ -1677,7 +1693,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>201001</v>
       </c>
@@ -1694,7 +1710,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>201002</v>
       </c>
@@ -1711,7 +1727,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>201003</v>
       </c>
@@ -1728,7 +1744,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>201004</v>
       </c>
@@ -1745,7 +1761,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>201005</v>
       </c>
@@ -1762,7 +1778,7 @@
         <v>-2.35</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>201006</v>
       </c>
@@ -1779,7 +1795,7 @@
         <v>-4.28</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>201007</v>
       </c>
@@ -1796,7 +1812,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>201008</v>
       </c>
@@ -1813,7 +1829,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>201009</v>
       </c>
@@ -1830,7 +1846,7 @@
         <v>-2.85</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>201010</v>
       </c>
@@ -1847,7 +1863,7 @@
         <v>-2.2200000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>201011</v>
       </c>
@@ -1864,7 +1880,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>201012</v>
       </c>
@@ -1881,7 +1897,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>201101</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>201102</v>
       </c>
@@ -1915,7 +1931,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>201103</v>
       </c>
@@ -1932,7 +1948,7 @@
         <v>-1.1599999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>201104</v>
       </c>
@@ -1949,7 +1965,7 @@
         <v>-2.17</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>201105</v>
       </c>
@@ -1966,7 +1982,7 @@
         <v>-2.0699999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>201106</v>
       </c>
@@ -1983,7 +1999,7 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>201107</v>
       </c>
@@ -2000,7 +2016,7 @@
         <v>-1.1399999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>201108</v>
       </c>
@@ -2017,7 +2033,7 @@
         <v>-1.57</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>201109</v>
       </c>
@@ -2034,7 +2050,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>201110</v>
       </c>
@@ -2051,7 +2067,7 @@
         <v>-0.92</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>201111</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>201112</v>
       </c>
@@ -2085,7 +2101,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>201201</v>
       </c>
@@ -2102,7 +2118,7 @@
         <v>-2.16</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>201202</v>
       </c>
@@ -2119,7 +2135,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>201203</v>
       </c>
@@ -2136,7 +2152,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>201204</v>
       </c>
@@ -2153,7 +2169,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>201205</v>
       </c>
@@ -2170,7 +2186,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>201206</v>
       </c>
@@ -2187,7 +2203,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>201207</v>
       </c>
@@ -2204,7 +2220,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>201208</v>
       </c>
@@ -2221,7 +2237,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>201209</v>
       </c>
@@ -2238,7 +2254,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>201210</v>
       </c>
@@ -2255,7 +2271,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>201211</v>
       </c>
@@ -2272,7 +2288,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>201212</v>
       </c>
@@ -2289,7 +2305,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>201301</v>
       </c>
@@ -2306,7 +2322,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>201302</v>
       </c>
@@ -2323,7 +2339,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>201303</v>
       </c>
@@ -2340,7 +2356,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>201304</v>
       </c>
@@ -2357,7 +2373,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>201305</v>
       </c>
@@ -2374,7 +2390,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>201306</v>
       </c>
@@ -2391,7 +2407,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>201307</v>
       </c>
@@ -2408,7 +2424,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>201308</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>-2.46</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>201309</v>
       </c>
@@ -2442,7 +2458,7 @@
         <v>-1.59</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>201310</v>
       </c>
@@ -2459,7 +2475,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>201311</v>
       </c>
@@ -2476,7 +2492,7 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>201312</v>
       </c>
